--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H2">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I2">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J2">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>57.82797790579423</v>
+        <v>71.04646859937</v>
       </c>
       <c r="R2">
-        <v>520.4518011521481</v>
+        <v>639.41821739433</v>
       </c>
       <c r="S2">
-        <v>0.0006208654685319409</v>
+        <v>0.0007348196156479716</v>
       </c>
       <c r="T2">
-        <v>0.0006546602661685498</v>
+        <v>0.0007404508430168019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H3">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I3">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J3">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>10591.39425162369</v>
+        <v>12357.00774063673</v>
       </c>
       <c r="R3">
-        <v>95322.54826461316</v>
+        <v>111213.0696657306</v>
       </c>
       <c r="S3">
-        <v>0.1137136588997341</v>
+        <v>0.1278060944835506</v>
       </c>
       <c r="T3">
-        <v>0.1199032930246946</v>
+        <v>0.1287855255736208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H4">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I4">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J4">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>484.5640559474414</v>
+        <v>220.716980711461</v>
       </c>
       <c r="R4">
-        <v>2907.384335684648</v>
+        <v>1324.301884268766</v>
       </c>
       <c r="S4">
-        <v>0.005202483305220351</v>
+        <v>0.002282832210112336</v>
       </c>
       <c r="T4">
-        <v>0.003657109071080268</v>
+        <v>0.001533550999862773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H5">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I5">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J5">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>9864.665656876985</v>
+        <v>10105.44008909431</v>
       </c>
       <c r="R5">
-        <v>88781.99091189286</v>
+        <v>90948.96080184875</v>
       </c>
       <c r="S5">
-        <v>0.1059111953550463</v>
+        <v>0.1045185742319602</v>
       </c>
       <c r="T5">
-        <v>0.1116761276888391</v>
+        <v>0.1053195433994029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>1340.005157</v>
       </c>
       <c r="I6">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J6">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>164.4107416224199</v>
+        <v>226.333571043085</v>
       </c>
       <c r="R6">
-        <v>1479.696674601779</v>
+        <v>2037.002139387765</v>
       </c>
       <c r="S6">
-        <v>0.001765182802957039</v>
+        <v>0.002340923496422557</v>
       </c>
       <c r="T6">
-        <v>0.001861264802425635</v>
+        <v>0.002358862963715858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J7">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>30112.39622733561</v>
+        <v>39365.86496813094</v>
       </c>
       <c r="R7">
-        <v>271011.5660460205</v>
+        <v>354292.7847131785</v>
       </c>
       <c r="S7">
-        <v>0.3232993383023151</v>
+        <v>0.4071533791306333</v>
       </c>
       <c r="T7">
-        <v>0.3408970889709276</v>
+        <v>0.4102735642795428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J8">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>1377.664215263942</v>
+        <v>703.1406826984171</v>
       </c>
       <c r="R8">
-        <v>8265.985291583655</v>
+        <v>4218.844096190503</v>
       </c>
       <c r="S8">
-        <v>0.01479118187191243</v>
+        <v>0.007272445434557248</v>
       </c>
       <c r="T8">
-        <v>0.01039752791546495</v>
+        <v>0.004885451466038284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J9">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>28046.23393794744</v>
+        <v>32193.01940570973</v>
       </c>
       <c r="R9">
-        <v>252416.105441527</v>
+        <v>289737.1746513876</v>
       </c>
       <c r="S9">
-        <v>0.3011161518185373</v>
+        <v>0.3329660518335894</v>
       </c>
       <c r="T9">
-        <v>0.3175064326951399</v>
+        <v>0.3355177087355671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H10">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I10">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J10">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>0.1745322503614444</v>
+        <v>0.37621595671</v>
       </c>
       <c r="R10">
-        <v>1.570790253253</v>
+        <v>3.38594361039</v>
       </c>
       <c r="S10">
-        <v>1.873851573560463E-06</v>
+        <v>3.891127457286843E-06</v>
       </c>
       <c r="T10">
-        <v>1.975848605025677E-06</v>
+        <v>3.920946780242394E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H11">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I11">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J11">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>31.966185575649</v>
+        <v>65.43468775952287</v>
       </c>
       <c r="R11">
-        <v>287.695670180841</v>
+        <v>588.9121898357059</v>
       </c>
       <c r="S11">
-        <v>0.0003432023996574104</v>
+        <v>0.0006767780729628553</v>
       </c>
       <c r="T11">
-        <v>0.0003618835089035822</v>
+        <v>0.0006819645039262312</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H12">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I12">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J12">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>1.462476437729667</v>
+        <v>1.168773785629666</v>
       </c>
       <c r="R12">
-        <v>8.774858626378</v>
+        <v>7.012642713778</v>
       </c>
       <c r="S12">
-        <v>1.570176152808161E-05</v>
+        <v>1.208839680377065E-05</v>
       </c>
       <c r="T12">
-        <v>1.103762398596573E-05</v>
+        <v>8.120690133528557E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H13">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I13">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J13">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>29.77282551644411</v>
+        <v>53.51184775323111</v>
       </c>
       <c r="R13">
-        <v>267.955429647997</v>
+        <v>481.60662977908</v>
       </c>
       <c r="S13">
-        <v>0.0003196535644718549</v>
+        <v>0.0005534624897456301</v>
       </c>
       <c r="T13">
-        <v>0.0003370528692692216</v>
+        <v>0.0005577039022685229</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H14">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I14">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J14">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>34.0663418380005</v>
+        <v>3.972179422200001</v>
       </c>
       <c r="R14">
-        <v>204.398051028003</v>
+        <v>23.8330765332</v>
       </c>
       <c r="S14">
-        <v>0.0003657505597182605</v>
+        <v>4.108346852206063E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002571060032727356</v>
+        <v>2.759887211628948E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H15">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I15">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J15">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>6239.368385051099</v>
+        <v>690.8753219545466</v>
       </c>
       <c r="R15">
-        <v>37436.21031030659</v>
+        <v>4145.25193172728</v>
       </c>
       <c r="S15">
-        <v>0.06698848059392344</v>
+        <v>0.007145587226890126</v>
       </c>
       <c r="T15">
-        <v>0.04708985414563394</v>
+        <v>0.004800231216233265</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H16">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I16">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J16">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>285.4556802799695</v>
+        <v>12.34019742566</v>
       </c>
       <c r="R16">
-        <v>1141.822721119878</v>
+        <v>49.36078970264001</v>
       </c>
       <c r="S16">
-        <v>0.003064772124158421</v>
+        <v>0.0001276322287104356</v>
       </c>
       <c r="T16">
-        <v>0.001436263578819113</v>
+        <v>5.716014550888984E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H17">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I17">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J17">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>5811.254077260125</v>
+        <v>564.9910821117334</v>
       </c>
       <c r="R17">
-        <v>34867.52446356075</v>
+        <v>3389.9464926704</v>
       </c>
       <c r="S17">
-        <v>0.06239206550355179</v>
+        <v>0.005843591356285328</v>
       </c>
       <c r="T17">
-        <v>0.04385878345587679</v>
+        <v>0.003925582146389917</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H18">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I18">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J18">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>0.02268552767388889</v>
+        <v>0.157211537945</v>
       </c>
       <c r="R18">
-        <v>0.204169749065</v>
+        <v>1.414903841505</v>
       </c>
       <c r="S18">
-        <v>2.435613569453911E-07</v>
+        <v>1.626007937700591E-06</v>
       </c>
       <c r="T18">
-        <v>2.568188292759591E-07</v>
+        <v>1.638468710665451E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H19">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I19">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J19">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>4.154932890645</v>
+        <v>27.34357146248077</v>
       </c>
       <c r="R19">
-        <v>37.394396015805</v>
+        <v>246.0921431623269</v>
       </c>
       <c r="S19">
-        <v>4.460910530317202E-05</v>
+        <v>0.000282809167979971</v>
       </c>
       <c r="T19">
-        <v>4.703725723443589E-05</v>
+        <v>0.0002849764518860771</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H20">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I20">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J20">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>0.1900912274483333</v>
+        <v>0.4884022622418333</v>
       </c>
       <c r="R20">
-        <v>1.14054736469</v>
+        <v>2.930413573451</v>
       </c>
       <c r="S20">
-        <v>2.040899289022101E-06</v>
+        <v>5.051448294297433E-06</v>
       </c>
       <c r="T20">
-        <v>1.434659347307193E-06</v>
+        <v>3.393439757928474E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H21">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I21">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J21">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>3.869842139687222</v>
+        <v>22.36130534476222</v>
       </c>
       <c r="R21">
-        <v>34.82857925718501</v>
+        <v>201.25174810286</v>
       </c>
       <c r="S21">
-        <v>4.154825121354997E-05</v>
+        <v>0.0002312785719369423</v>
       </c>
       <c r="T21">
-        <v>4.38097954821288E-05</v>
+        <v>0.0002330509555211323</v>
       </c>
     </row>
   </sheetData>
